--- a/biology/Zoologie/Diatomyidae/Diatomyidae.xlsx
+++ b/biology/Zoologie/Diatomyidae/Diatomyidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Diatomyidae sont une famille de rongeurs présumés disparus et connus seulement sous forme de fossiles. Toutefois, en 2005, ont été créés le genre Laonastes à la suite de la découverte d'une nouvelle espèce de rongeurs du Laos : Laonastes aenigmamus. Ce genre a été classé dans la famille des Laonastidae, mais Dawson et al. (2006) pensent qu'il s'agit d'un taxon lazare de la famille des Diatomyidae, déjà connu d'après des ossements et que l'on croyait éteint. Quoi qu'il en soit, le Kha-nyou serait le seul représentant actuel d'une famille dont les autres membres sont supposés éteints depuis près de dix millions d'années[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Diatomyidae sont une famille de rongeurs présumés disparus et connus seulement sous forme de fossiles. Toutefois, en 2005, ont été créés le genre Laonastes à la suite de la découverte d'une nouvelle espèce de rongeurs du Laos : Laonastes aenigmamus. Ce genre a été classé dans la famille des Laonastidae, mais Dawson et al. (2006) pensent qu'il s'agit d'un taxon lazare de la famille des Diatomyidae, déjà connu d'après des ossements et que l'on croyait éteint. Quoi qu'il en soit, le Kha-nyou serait le seul représentant actuel d'une famille dont les autres membres sont supposés éteints depuis près de dix millions d'années,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Classification dans cette famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite pour la première fois en 1997 par les paléontologues français Pierre Mein et Léonard Ginsburg (1927-2009). 
 </t>
@@ -542,9 +556,11 @@
           <t>Taxons actuels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (20 mai 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (20 mai 2013) :
 genre Laonastes Jenkins, Kilpatrick, Robinson &amp; Timmins, 2005
 Laonastes aenigmamus - le Kha-nyou</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Liste des genres et espèces éteints</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database                   (20 mai 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database                   (20 mai 2013) :
 †Fallomus
 †Fallomus razae
 †Fallomus ladakhensis
